--- a/users.xlsx
+++ b/users.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,6 +498,51 @@
         </is>
       </c>
       <c r="C4" t="inlineStr">
+        <is>
+          <t>alice@example.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>2</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Bob</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>bob@example.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Charlie</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>charlie@example.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>1</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Alice</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>alice@example.com</t>
         </is>
